--- a/data-raw/Scenario_Parameters.xlsx
+++ b/data-raw/Scenario_Parameters.xlsx
@@ -47,12 +47,6 @@
     <t>wb</t>
   </si>
   <si>
-    <t>L50</t>
-  </si>
-  <si>
-    <t>L95</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -102,6 +96,12 @@
   </si>
   <si>
     <t>CAL_nsamp</t>
+  </si>
+  <si>
+    <t>A50</t>
+  </si>
+  <si>
+    <t>A95</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,23 +503,23 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0.1</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>60</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>70</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>0.2</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>1000</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>0.1</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0.1</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>30</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>100</v>

--- a/data-raw/Scenario_Parameters.xlsx
+++ b/data-raw/Scenario_Parameters.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Scenario</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Rbar</t>
   </si>
   <si>
-    <t>F_mu</t>
-  </si>
-  <si>
-    <t>F_sd</t>
-  </si>
-  <si>
     <t>CAL_ESS</t>
   </si>
   <si>
@@ -102,6 +96,27 @@
   </si>
   <si>
     <t>A95</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>sigmaE</t>
+  </si>
+  <si>
+    <t>currentE</t>
+  </si>
+  <si>
+    <t>currentF</t>
+  </si>
+  <si>
+    <t>effortPattern</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>Ecv</t>
   </si>
 </sst>
 </file>
@@ -428,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -503,18 +518,18 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -578,7 +593,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -591,55 +606,55 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>30</v>
@@ -647,10 +662,42 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
